--- a/VersionRecords/Version 5.1.0.4 20161117/版本Bug和特性计划及评审表v5.1.0.4.xlsx
+++ b/VersionRecords/Version 5.1.0.4 20161117/版本Bug和特性计划及评审表v5.1.0.4.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0.4 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -89,12 +89,132 @@
     <t>重要程度</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板性能优化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复房间详情页室友信息显示</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>修改业主信息报错</t>
+  </si>
+  <si>
+    <t>Bugfix</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,6 +293,39 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -302,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +572,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -802,7 +979,7 @@
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,75 +1074,177 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="14">
+        <v>42691</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42691</v>
+      </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="23"/>
+      <c r="L2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="14">
+        <v>42691</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="23"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="30"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="14">
+        <v>42691</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14">
+        <v>42691</v>
+      </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="14">
+        <v>42691</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="24">
+        <v>4792</v>
+      </c>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="31"/>
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="31"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="44">
+        <v>42691</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="44">
+        <v>42691</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="44">
+        <v>42691</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="46">
+        <v>5112</v>
+      </c>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="45"/>
       <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5091,6 +5370,6 @@
   <autoFilter ref="A1:U10"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>